--- a/ppt/技术族工程类-区块链开发任职资格.v1.xlsx
+++ b/ppt/技术族工程类-区块链开发任职资格.v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="955" activeTab="3"/>
+    <workbookView windowHeight="16760" tabRatio="955" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3-技术族素质能力要求" sheetId="7" r:id="rId4"/>
     <sheet name="4-技术族素质能力辞典" sheetId="13" r:id="rId5"/>
     <sheet name="5-工程类-区块链开发岗位任职资格" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369">
   <si>
     <t>目    录</t>
   </si>
@@ -2843,23 +2844,499 @@
     <t>①自我驱动 5           ②正直诚信 5
 ③团队协作 5           ④学习能力 5</t>
   </si>
+  <si>
+    <t>Meet the Career Progression requirements listed below:</t>
+  </si>
+  <si>
+    <t>Progress Category</t>
+  </si>
+  <si>
+    <t>Associate Role (Band 6)</t>
+  </si>
+  <si>
+    <t>Role (Band 7)</t>
+  </si>
+  <si>
+    <t>Senior Role (Band 8)</t>
+  </si>
+  <si>
+    <t>Principle Role (Band 9)</t>
+  </si>
+  <si>
+    <t>Associate Partner (Band 10)</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>�</t>
+  </si>
+  <si>
+    <t>�Role Proficiency</t>
+  </si>
+  <si>
+    <t>Workday Project Experience</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Have experience in 2 to 3 full life cycle project deployments or 1+ complex program</t>
+  </si>
+  <si>
+    <t>Have experience in 3 to 5 full life cycle project deployments or 2+ complex programs</t>
+  </si>
+  <si>
+    <t>Have experience in over 7 full life cycle project deployments or 4+ complex programs</t>
+  </si>
+  <si>
+    <t>Have experience in over 10 full life cycle project deployments or 5+ complex programs</t>
+  </si>
+  <si>
+    <t>Talent Track Proficiency</t>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Have proficiency in at least 1 Workday certification under your talent track +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Complete all certifications under your talent track +</t>
+    </r>
+  </si>
+  <si>
+    <t>Have Workday certifications outside of your talent track</t>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Be a Workstream Lead or Technical Lead +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Obtain the Workday Workstream Lead badge +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Be a Workstream Lead or Technical Lead or experienced Engagement Manager or experienced Developer +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>If you are a Functional or Technical consultant, obtain the Workday Workstream Lead badge +</t>
+    </r>
+  </si>
+  <si>
+    <t>�Emerging Capabilities</t>
+  </si>
+  <si>
+    <t>Thought Leadership and Innovation</t>
+  </si>
+  <si>
+    <t>Participate in a Workday Guild</t>
+  </si>
+  <si>
+    <t>Act as a mentor or coach for newer Workday practitioners</t>
+  </si>
+  <si>
+    <t>Be a Project Team Leader or People Manager</t>
+  </si>
+  <si>
+    <t>Have recognized eminence in the Workday eco-system</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing and Practice Development</t>
+  </si>
+  <si>
+    <t>Actively participate in Workday community</t>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="ArialMT"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Actively participate and contribute to a Guild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t> +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Be a Guild Leader or act as a Thought Leader through social channels (blogs, Twitter, etc.) +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Be a Business Development Go to Delivery Leader +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="ArialMT"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Build eminence in Workday community</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t> +</t>
+    </r>
+  </si>
+  <si>
+    <t>file:/Users/oak/go/src/github.com/cloud/ppt/关于团队建设%20-%20公链组汇报.pptx</t>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Have client relationships that can provide references +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="ArialMT"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Altitude presentation, product lead, or other demonstration of thought leadership</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t> +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="HelveticaNeue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Actively participate in Orals and pre-sales support +</t>
+    </r>
+  </si>
+  <si>
+    <t>�Industry Proficiency</t>
+  </si>
+  <si>
+    <t>Industry Capabilities</t>
+  </si>
+  <si>
+    <t>Obtain the Industry Foundations Knowledge badge</t>
+  </si>
+  <si>
+    <t>�Not Applicable</t>
+  </si>
+  <si>
+    <t>�Core Skills</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Be able to effectively communicate through active listening</t>
+  </si>
+  <si>
+    <t>Be able to articulate a compelling case for change</t>
+  </si>
+  <si>
+    <t>Be able to communicate persuasively</t>
+  </si>
+  <si>
+    <t>Articulate client value through stories and impactful value propositions</t>
+  </si>
+  <si>
+    <t>Deepen client relationships by being client-centric</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Present to team (concepts, ideas, etc.)</t>
+  </si>
+  <si>
+    <t>Be able to present in team meetings</t>
+  </si>
+  <si>
+    <t>Be able to present through story telling</t>
+  </si>
+  <si>
+    <t>Be dynamic presenter</t>
+  </si>
+  <si>
+    <t>Present inspirational visions to excite / engage</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Actively participate in collaborative discussions and ideas</t>
+  </si>
+  <si>
+    <t>Engage in collaborative discussions and provide thought insight</t>
+  </si>
+  <si>
+    <t>Instill accountability in self and others</t>
+  </si>
+  <si>
+    <t>Drive an increase in collaborative behaviors and team participation</t>
+  </si>
+  <si>
+    <t>Cultivate and integrate collaborative ways of working throughout the team</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Contribute to teaming through practice give-back</t>
+  </si>
+  <si>
+    <t>Lead small teams</t>
+  </si>
+  <si>
+    <t>Influence others as a leader and build teams</t>
+  </si>
+  <si>
+    <t>Motivate and coach teams</t>
+  </si>
+  <si>
+    <t>Be recognized as a leader within the Workday Practice and to mentor and develop others</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing</t>
+  </si>
+  <si>
+    <t>Evaluate and rate shared content</t>
+  </si>
+  <si>
+    <t>Contribute and share your authored content</t>
+  </si>
+  <si>
+    <t>Participate in and encourage your team to research, contribute documents, and review shared content</t>
+  </si>
+  <si>
+    <t>Drive a culture of knowledge sharing with regular team contributions plus content feedback</t>
+  </si>
+  <si>
+    <t>Be accountable for Knowledge Sharing adoption at all levels</t>
+  </si>
+  <si>
+    <t>Client Value</t>
+  </si>
+  <si>
+    <t>Recognize opportunities and identify engagement issues to deliver client value</t>
+  </si>
+  <si>
+    <t>Define problem, develop and present value driven solution</t>
+  </si>
+  <si>
+    <t>Know your client by focusing on knowing the industry, the business, and your client</t>
+  </si>
+  <si>
+    <t>Live the client ethos through Inspire, Deliver, Champion, and Advise Me</t>
+  </si>
+  <si>
+    <t>Identify new opportunities through client empathy. Create compelling value propositions</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Comply with administrative requirement (time and expense)</t>
+  </si>
+  <si>
+    <t>Apply concepts of 'Execute It Right'</t>
+  </si>
+  <si>
+    <t>Participate in 'Start It Right'</t>
+  </si>
+  <si>
+    <t>Lead 'Sell It Right' activities</t>
+  </si>
+  <si>
+    <t>Own Delivery Excellence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="63">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="ArialMT"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial-BoldMT"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial-BoldMT"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="HelveticaNeue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="ArialMT"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3087,6 +3564,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -3094,15 +3587,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,40 +3610,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3164,7 +3642,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3179,6 +3679,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -3192,16 +3700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3212,43 +3712,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D54A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3300,7 +3789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3312,37 +3801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3354,19 +3813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,19 +3831,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,73 +3909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,11 +3931,95 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="58">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6D6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6D6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6D6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6D6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6D6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6D6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6D6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6D6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6D6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6D6D6D"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4013,30 +4544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4048,6 +4555,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4067,11 +4592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4097,16 +4628,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4115,764 +4646,803 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="61" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="53" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="16" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="16" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="16" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="37" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="37" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="32" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="33" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="38" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="34" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="41" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="1"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="2"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="1"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -6093,163 +6663,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3303571428571" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="2.16071428571429" style="174" customWidth="1"/>
-    <col min="2" max="2" width="4" style="174" customWidth="1"/>
-    <col min="3" max="3" width="50.6607142857143" style="174" customWidth="1"/>
-    <col min="4" max="4" width="6.33035714285714" style="174" customWidth="1"/>
-    <col min="5" max="5" width="50.6607142857143" style="174" customWidth="1"/>
-    <col min="6" max="16384" width="10.3303571428571" style="174"/>
+    <col min="1" max="1" width="2.16071428571429" style="187" customWidth="1"/>
+    <col min="2" max="2" width="4" style="187" customWidth="1"/>
+    <col min="3" max="3" width="50.6607142857143" style="187" customWidth="1"/>
+    <col min="4" max="4" width="6.33035714285714" style="187" customWidth="1"/>
+    <col min="5" max="5" width="50.6607142857143" style="187" customWidth="1"/>
+    <col min="6" max="16384" width="10.3303571428571" style="187"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="175"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="197"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="2:5">
-      <c r="B3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="198"/>
+      <c r="B3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="211"/>
     </row>
     <row r="4" ht="3" customHeight="1" spans="2:5">
-      <c r="B4" s="178"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="199"/>
+      <c r="B4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="212"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="178"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="200"/>
-    </row>
-    <row r="6" s="169" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B6" s="182"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="201" t="s">
+      <c r="B5" s="191"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="213"/>
+    </row>
+    <row r="6" s="182" customFormat="1" ht="19.2" spans="2:5">
+      <c r="B6" s="195"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="170" customFormat="1" ht="22" spans="2:5">
-      <c r="B7" s="185"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="201" t="s">
+    <row r="7" s="183" customFormat="1" ht="22" spans="2:5">
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="214" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="170" customFormat="1" ht="22" spans="2:5">
-      <c r="B8" s="185"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="201" t="s">
+    <row r="8" s="183" customFormat="1" ht="22" spans="2:5">
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="214" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="170" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B9" s="185"/>
-      <c r="C9" s="188" t="s">
+    <row r="9" s="183" customFormat="1" ht="24.8" spans="2:5">
+      <c r="B9" s="198"/>
+      <c r="C9" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="201" t="s">
+      <c r="D9" s="200"/>
+      <c r="E9" s="214" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="171" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B10" s="189"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="201" t="s">
+    <row r="10" s="184" customFormat="1" ht="24.8" spans="2:5">
+      <c r="B10" s="202"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="214" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" s="171" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B11" s="189"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="202" t="s">
+    <row r="11" s="184" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B11" s="202"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="215" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" s="171" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B12" s="189"/>
-      <c r="C12" s="190" t="s">
+    <row r="12" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B12" s="202"/>
+      <c r="C12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="202" t="s">
+      <c r="D12" s="192"/>
+      <c r="E12" s="215" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="171" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B13" s="189"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="202" t="s">
+    <row r="13" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B13" s="202"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="215" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="171" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B14" s="189"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="202" t="s">
+    <row r="14" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B14" s="202"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="215" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="171" customFormat="1" ht="16.5" customHeight="1" spans="2:5">
-      <c r="B15" s="189"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="202" t="s">
+    <row r="15" s="184" customFormat="1" ht="16.5" customHeight="1" spans="2:5">
+      <c r="B15" s="202"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="215" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="171" customFormat="1" ht="15" customHeight="1" spans="2:5">
-      <c r="B16" s="189"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="202" t="s">
+    <row r="16" s="184" customFormat="1" ht="15" customHeight="1" spans="2:5">
+      <c r="B16" s="202"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" s="171" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B17" s="189"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="201" t="s">
+    <row r="17" s="184" customFormat="1" ht="24.8" spans="2:5">
+      <c r="B17" s="202"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="214" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" s="171" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B18" s="189"/>
-      <c r="C18" s="192">
+    <row r="18" s="184" customFormat="1" ht="24.8" spans="2:5">
+      <c r="B18" s="202"/>
+      <c r="C18" s="205">
         <f ca="1">TODAY()</f>
-        <v>42328</v>
-      </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="201" t="s">
+        <v>42342</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="214" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="172" customFormat="1" ht="19.95" spans="2:5">
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="203"/>
-    </row>
-    <row r="20" s="172" customFormat="1" ht="19.2" spans="3:5">
-      <c r="C20" s="196"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="204"/>
-    </row>
-    <row r="21" s="173" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="205"/>
+    <row r="19" s="185" customFormat="1" ht="19.95" spans="2:5">
+      <c r="B19" s="206"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="216"/>
+    </row>
+    <row r="20" s="185" customFormat="1" ht="19.2" spans="3:5">
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="217"/>
+    </row>
+    <row r="21" s="186" customFormat="1" ht="19.2" spans="2:5">
+      <c r="B21" s="209"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6278,66 +6848,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="69" customWidth="1"/>
-    <col min="2" max="2" width="12.8303571428571" style="69" customWidth="1"/>
-    <col min="3" max="3" width="48.3303571428571" style="69" customWidth="1"/>
-    <col min="4" max="4" width="30.3303571428571" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="8.83035714285714" style="69"/>
+    <col min="1" max="1" width="8.83035714285714" style="82" customWidth="1"/>
+    <col min="2" max="2" width="12.8303571428571" style="82" customWidth="1"/>
+    <col min="3" max="3" width="48.3303571428571" style="82" customWidth="1"/>
+    <col min="4" max="4" width="30.3303571428571" style="82" customWidth="1"/>
+    <col min="5" max="16384" width="8.83035714285714" style="82"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-    </row>
-    <row r="2" s="156" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A2" s="158" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+    </row>
+    <row r="2" s="169" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160" t="s">
+      <c r="B2" s="172"/>
+      <c r="C2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="173" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="156" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A3" s="161" t="s">
+    <row r="3" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
+      <c r="A3" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="177" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="156" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="165"/>
-      <c r="B4" s="162" t="s">
+    <row r="4" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
+      <c r="A4" s="178"/>
+      <c r="B4" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="166"/>
-    </row>
-    <row r="5" s="156" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A5" s="167"/>
-      <c r="B5" s="162" t="s">
+      <c r="D4" s="179"/>
+    </row>
+    <row r="5" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
+      <c r="A5" s="180"/>
+      <c r="B5" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="181"/>
     </row>
     <row r="6" ht="22" customHeight="1"/>
   </sheetData>
@@ -6364,565 +6934,565 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.16071428571429" style="93" customWidth="1"/>
-    <col min="3" max="3" width="80.6607142857143" style="94" customWidth="1"/>
-    <col min="4" max="4" width="2" style="95" customWidth="1"/>
-    <col min="5" max="5" width="8.33035714285714" style="95" customWidth="1"/>
-    <col min="6" max="6" width="9.66071428571429" style="95" customWidth="1"/>
-    <col min="7" max="7" width="8.33035714285714" style="95" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="95" customWidth="1"/>
-    <col min="9" max="9" width="10.8303571428571" style="95" customWidth="1"/>
-    <col min="10" max="10" width="1.66071428571429" style="95" customWidth="1"/>
-    <col min="11" max="16384" width="8.83035714285714" style="95"/>
+    <col min="1" max="1" width="9.5" style="106" customWidth="1"/>
+    <col min="2" max="2" width="5.16071428571429" style="106" customWidth="1"/>
+    <col min="3" max="3" width="80.6607142857143" style="107" customWidth="1"/>
+    <col min="4" max="4" width="2" style="108" customWidth="1"/>
+    <col min="5" max="5" width="8.33035714285714" style="108" customWidth="1"/>
+    <col min="6" max="6" width="9.66071428571429" style="108" customWidth="1"/>
+    <col min="7" max="7" width="8.33035714285714" style="108" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="108" customWidth="1"/>
+    <col min="9" max="9" width="10.8303571428571" style="108" customWidth="1"/>
+    <col min="10" max="10" width="1.66071428571429" style="108" customWidth="1"/>
+    <col min="11" max="16384" width="8.83035714285714" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="E1" s="111" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="E1" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="142"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="156" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="144" t="s">
+      <c r="I4" s="157" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="104" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="158" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121" t="s">
+      <c r="E6" s="132"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="159" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120" t="s">
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="158" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:9">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="156" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="105" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="146" t="s">
+      <c r="I9" s="159" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118" t="s">
+      <c r="E10" s="137"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="157" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="23" spans="1:9">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="104" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="156" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="106" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121" t="s">
+      <c r="E12" s="136"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="159" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="156" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" ht="23" spans="1:9">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="104" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="146" t="s">
+      <c r="I14" s="159" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:9">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="106" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="116" t="s">
+      <c r="F15" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="156" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="116" t="s">
+      <c r="F16" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="147" t="s">
+      <c r="I16" s="160" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="104" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120" t="s">
+      <c r="E17" s="136"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="148" t="s">
+      <c r="H17" s="138"/>
+      <c r="I17" s="161" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="104" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127" t="s">
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="149" t="s">
+      <c r="H18" s="141"/>
+      <c r="I18" s="162" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="105" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="150"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="163"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="104" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134" t="s">
+      <c r="E22" s="146"/>
+      <c r="F22" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="151"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="164"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="107" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="152"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="165"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136" t="s">
+      <c r="E24" s="148"/>
+      <c r="F24" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="152"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="165"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="108"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="104" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="133" t="s">
+      <c r="E25" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="137" t="s">
+      <c r="F25" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="153"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="166"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="108"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="104" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140" t="s">
+      <c r="E26" s="152"/>
+      <c r="F26" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="168"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="108"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="106" t="s">
+      <c r="A27" s="121"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="155"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="155"/>
+      <c r="J28" s="168"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="108"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="104" t="s">
+      <c r="A29" s="121"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="155"/>
+      <c r="J29" s="168"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="104" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="117" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="108"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="105" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="155"/>
+      <c r="J31" s="168"/>
     </row>
     <row r="32" ht="45" customHeight="1" spans="1:9">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
     </row>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="17.25" customHeight="1"/>
@@ -6974,7 +7544,7 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
   </mergeCells>
-  <pageMargins left="0.314583333333333" right="0" top="0.156944444444444" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
+  <pageMargins left="0.313888888888889" right="0" top="0.15625" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
@@ -6987,227 +7557,227 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="13.1607142857143" style="71" customWidth="1"/>
-    <col min="2" max="2" width="15.6964285714286" style="71" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="71" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="71" customWidth="1"/>
-    <col min="6" max="16384" width="8.83035714285714" style="71"/>
+    <col min="1" max="1" width="13.1607142857143" style="84" customWidth="1"/>
+    <col min="2" max="2" width="15.6964285714286" style="84" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="84" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="84" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="84" customWidth="1"/>
+    <col min="6" max="16384" width="8.83035714285714" style="84"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-    </row>
-    <row r="2" s="69" customFormat="1" ht="14" spans="1:5">
-      <c r="A2" s="73" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" s="82" customFormat="1" ht="14" spans="1:5">
+      <c r="A2" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" s="69" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="102"/>
+    </row>
+    <row r="3" s="82" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="89" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="69" customFormat="1" ht="43.5" customHeight="1" spans="1:5">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="77" t="s">
+    <row r="4" s="82" customFormat="1" ht="43.5" customHeight="1" spans="1:5">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="91" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:10">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="90"/>
-    </row>
-    <row r="6" s="70" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83" t="s">
+      <c r="I5" s="104"/>
+      <c r="J5" s="103"/>
+    </row>
+    <row r="6" s="83" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="90"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:10">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="90"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:10">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="90"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:8">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:8">
-      <c r="A12" s="85"/>
-      <c r="B12" s="88" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:8">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" ht="18.75" customHeight="1"/>
   </sheetData>
@@ -7238,505 +7808,505 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3303571428571" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="6.16071428571429" style="29" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="24" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="30" customWidth="1"/>
-    <col min="5" max="5" width="23.1607142857143" style="31" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="31" customWidth="1"/>
-    <col min="7" max="7" width="26.6607142857143" style="31" customWidth="1"/>
-    <col min="8" max="9" width="26.3303571428571" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="10.3303571428571" style="32"/>
+    <col min="1" max="1" width="6.16071428571429" style="42" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="23.1607142857143" style="44" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="26.6607142857143" style="44" customWidth="1"/>
+    <col min="8" max="9" width="26.3303571428571" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="10.3303571428571" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="38" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A1" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" s="25" customFormat="1" spans="1:9">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" s="38" customFormat="1" spans="1:9">
+      <c r="A2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" s="25" customFormat="1" ht="13" spans="1:9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" s="38" customFormat="1" ht="13" spans="1:9">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="138.75" customHeight="1" spans="1:9">
-      <c r="A4" s="38" t="s">
+    <row r="4" s="39" customFormat="1" ht="138.75" customHeight="1" spans="1:9">
+      <c r="A4" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="76" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" s="26" customFormat="1" ht="101" spans="1:9">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+    <row r="5" s="39" customFormat="1" ht="101" spans="1:9">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="1" ht="112" spans="1:9">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39">
+    <row r="6" s="39" customFormat="1" ht="112" spans="1:9">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="78" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="26" customFormat="1" ht="135" spans="1:9">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39">
+    <row r="7" s="39" customFormat="1" ht="135" spans="1:9">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="77" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" s="26" customFormat="1" ht="101" spans="1:9">
-      <c r="A8" s="43" t="s">
+    <row r="8" s="39" customFormat="1" ht="101" spans="1:9">
+      <c r="A8" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="52">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="77" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" ht="126" customHeight="1" spans="1:9">
-      <c r="A9" s="43"/>
-      <c r="B9" s="39">
+    <row r="9" s="40" customFormat="1" ht="126" customHeight="1" spans="1:9">
+      <c r="A9" s="56"/>
+      <c r="B9" s="52">
         <v>6</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="77" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="1" ht="124" spans="1:9">
-      <c r="A10" s="43"/>
-      <c r="B10" s="39">
+    <row r="10" s="40" customFormat="1" ht="124" spans="1:9">
+      <c r="A10" s="56"/>
+      <c r="B10" s="52">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="77" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" ht="112" spans="1:9">
-      <c r="A11" s="43"/>
-      <c r="B11" s="39">
+    <row r="11" s="40" customFormat="1" ht="112" spans="1:9">
+      <c r="A11" s="56"/>
+      <c r="B11" s="52">
         <v>8</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="77" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" ht="112" spans="1:9">
-      <c r="A12" s="43"/>
-      <c r="B12" s="39">
+    <row r="12" s="41" customFormat="1" ht="112" spans="1:9">
+      <c r="A12" s="56"/>
+      <c r="B12" s="52">
         <v>9</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="1" ht="101" spans="1:9">
-      <c r="A13" s="43"/>
-      <c r="B13" s="39">
+    <row r="13" s="39" customFormat="1" ht="101" spans="1:9">
+      <c r="A13" s="56"/>
+      <c r="B13" s="52">
         <v>10</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="77" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" ht="101" spans="1:9">
-      <c r="A14" s="43"/>
-      <c r="B14" s="39">
+    <row r="14" s="40" customFormat="1" ht="101" spans="1:9">
+      <c r="A14" s="56"/>
+      <c r="B14" s="52">
         <v>11</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="80" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="1" ht="163.5" customHeight="1" spans="1:9">
-      <c r="A15" s="43"/>
-      <c r="B15" s="39">
+    <row r="15" s="39" customFormat="1" ht="163.5" customHeight="1" spans="1:9">
+      <c r="A15" s="56"/>
+      <c r="B15" s="52">
         <v>12</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="77" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="1" ht="101" spans="1:9">
-      <c r="A16" s="43"/>
-      <c r="B16" s="39">
+    <row r="16" s="39" customFormat="1" ht="101" spans="1:9">
+      <c r="A16" s="56"/>
+      <c r="B16" s="52">
         <v>13</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="79" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" ht="175.5" customHeight="1" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="39">
+    <row r="17" s="41" customFormat="1" ht="175.5" customHeight="1" spans="1:9">
+      <c r="A17" s="56"/>
+      <c r="B17" s="52">
         <v>14</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="1" ht="101" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="39">
+    <row r="18" s="41" customFormat="1" ht="101" spans="1:9">
+      <c r="A18" s="56"/>
+      <c r="B18" s="52">
         <v>15</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="79" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" s="28" customFormat="1" ht="112.75" spans="1:9">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48">
+    <row r="19" s="41" customFormat="1" ht="112.75" spans="1:9">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61">
         <v>16</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="81" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7769,163 +8339,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.6607142857143" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.8303571428571" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.3303571428571" style="3"/>
+    <col min="1" max="1" width="6" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="40.6607142857143" style="16" customWidth="1"/>
+    <col min="4" max="4" width="41" style="16" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="33.8303571428571" style="16" customWidth="1"/>
+    <col min="7" max="7" width="31" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="16.3303571428571" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" s="14" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A2" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="23" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="15" customFormat="1" ht="23" spans="1:7">
+      <c r="A3" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="33" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" ht="81" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" ht="81" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="37" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="26" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7937,8 +8507,538 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.156944444444444" bottom="0.156944444444444" header="0.118055555555556" footer="0.118055555555556"/>
+  <pageMargins left="0" right="0" top="0.15625" bottom="0.15625" header="0.118055555555556" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.2053571428571" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="37.2053571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.15" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" ht="53.75" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" ht="36.75" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="36.75" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="36.75" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="71.75" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="53.75" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="18.35" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" ht="36.75" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" ht="53.75" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" ht="53.75" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" ht="53.75" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" ht="18.35" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" ht="18.35" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" ht="18.35" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="36.75" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" ht="53.75" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" ht="53.75" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" ht="71.75" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" ht="53.75" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" ht="36.75" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G20:G21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" display="Obtain the Industry Foundations Knowledge badge"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ppt/技术族工程类-区块链开发任职资格.v1.xlsx
+++ b/ppt/技术族工程类-区块链开发任职资格.v1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oak/cloud/ppt/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="955" activeTab="6"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="955" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -15,12 +20,20 @@
     <sheet name="5-工程类-区块链开发岗位任职资格" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="369">
   <si>
     <t>目    录</t>
   </si>
@@ -3292,15 +3305,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3564,163 +3573,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3765,13 +3623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3783,168 +3641,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -4543,268 +4245,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="168" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="16" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4850,15 +4307,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4871,18 +4319,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4937,24 +4379,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5020,9 +4447,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5048,18 +4472,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5087,9 +4499,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5098,67 +4507,49 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5166,101 +4557,314 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="16" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5270,229 +4874,86 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="37" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="37" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="32" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="38" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="1"/>
     <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="2"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="10" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="Accent3" xfId="17" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="18" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="22" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="23" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="25" builtinId="32"/>
-    <cellStyle name="Bad" xfId="26" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Output" xfId="29" builtinId="21"/>
-    <cellStyle name="Currency" xfId="30" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="31" builtinId="38"/>
-    <cellStyle name="Note" xfId="32" builtinId="10"/>
-    <cellStyle name="Input" xfId="33" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="34" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
-    <cellStyle name="Good" xfId="36" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="38" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="40" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="Title" xfId="42" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="43" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
-    <cellStyle name="Comma" xfId="47" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="49" builtinId="40"/>
-    <cellStyle name="Percent" xfId="50" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -5571,7 +5032,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5593,7 +5054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6649,177 +6110,177 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3303571428571" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.16071428571429" style="187" customWidth="1"/>
-    <col min="2" max="2" width="4" style="187" customWidth="1"/>
-    <col min="3" max="3" width="50.6607142857143" style="187" customWidth="1"/>
-    <col min="4" max="4" width="6.33035714285714" style="187" customWidth="1"/>
-    <col min="5" max="5" width="50.6607142857143" style="187" customWidth="1"/>
-    <col min="6" max="16384" width="10.3303571428571" style="187"/>
+    <col min="1" max="1" width="2.1640625" style="129" customWidth="1"/>
+    <col min="2" max="2" width="4" style="129" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="129" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="129" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="129" customWidth="1"/>
+    <col min="6" max="16384" width="10.33203125" style="129"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="188"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="210"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1" spans="2:5">
-      <c r="B3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="211"/>
-    </row>
-    <row r="4" ht="3" customHeight="1" spans="2:5">
-      <c r="B4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="212"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="191"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="213"/>
-    </row>
-    <row r="6" s="182" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B6" s="195"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="214" t="s">
+      <c r="E2" s="160"/>
+    </row>
+    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="132"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
+    </row>
+    <row r="4" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="132"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="148"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="132"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="149"/>
+    </row>
+    <row r="6" spans="2:5" s="124" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="183" customFormat="1" ht="22" spans="2:5">
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="214" t="s">
+    <row r="7" spans="2:5" s="125" customFormat="1" ht="23" x14ac:dyDescent="0.15">
+      <c r="B7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="150" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="183" customFormat="1" ht="22" spans="2:5">
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="214" t="s">
+    <row r="8" spans="2:5" s="125" customFormat="1" ht="23" x14ac:dyDescent="0.15">
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="183" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B9" s="198"/>
-      <c r="C9" s="201" t="s">
+    <row r="9" spans="2:5" s="125" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B9" s="139"/>
+      <c r="C9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="200"/>
-      <c r="E9" s="214" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="150" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="184" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B10" s="202"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="214" t="s">
+    <row r="10" spans="2:5" s="126" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B10" s="143"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" s="184" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B11" s="202"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="215" t="s">
+    <row r="11" spans="2:5" s="126" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="143"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B12" s="202"/>
-      <c r="C12" s="203" t="s">
+    <row r="12" spans="2:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="143"/>
+      <c r="C12" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="215" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B13" s="202"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="215" t="s">
+    <row r="13" spans="2:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="143"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="184" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B14" s="202"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="215" t="s">
+    <row r="14" spans="2:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="143"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="151" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="184" customFormat="1" ht="16.5" customHeight="1" spans="2:5">
-      <c r="B15" s="202"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="215" t="s">
+    <row r="15" spans="2:5" s="126" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="151" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="184" customFormat="1" ht="15" customHeight="1" spans="2:5">
-      <c r="B16" s="202"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="215" t="s">
+    <row r="16" spans="2:5" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="151" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" s="184" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B17" s="202"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="214" t="s">
+    <row r="17" spans="2:5" s="126" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B17" s="143"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="150" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" s="184" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B18" s="202"/>
-      <c r="C18" s="205">
+    <row r="18" spans="2:5" s="126" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B18" s="143"/>
+      <c r="C18" s="145">
         <f ca="1">TODAY()</f>
-        <v>42342</v>
-      </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="214" t="s">
+        <v>42348</v>
+      </c>
+      <c r="D18" s="133"/>
+      <c r="E18" s="150" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="185" customFormat="1" ht="19.95" spans="2:5">
-      <c r="B19" s="206"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="216"/>
-    </row>
-    <row r="20" s="185" customFormat="1" ht="19.2" spans="3:5">
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="217"/>
-    </row>
-    <row r="21" s="186" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B21" s="209"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="218"/>
+    <row r="19" spans="2:5" s="127" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="152"/>
+    </row>
+    <row r="20" spans="2:5" s="127" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="153"/>
+    </row>
+    <row r="21" spans="2:5" s="128" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6828,88 +6289,87 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D2:E3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="82" customWidth="1"/>
-    <col min="2" max="2" width="12.8303571428571" style="82" customWidth="1"/>
-    <col min="3" max="3" width="48.3303571428571" style="82" customWidth="1"/>
-    <col min="4" max="4" width="30.3303571428571" style="82" customWidth="1"/>
-    <col min="5" max="16384" width="8.83035714285714" style="82"/>
+    <col min="1" max="1" width="8.83203125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="70" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-    </row>
-    <row r="2" s="169" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A2" s="171" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+    </row>
+    <row r="2" spans="1:4" s="120" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="173" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:4" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="169" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="178"/>
-      <c r="B4" s="175" t="s">
+    <row r="4" spans="1:4" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="167"/>
+      <c r="B4" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="179"/>
-    </row>
-    <row r="5" s="169" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A5" s="180"/>
-      <c r="B5" s="175" t="s">
+      <c r="D4" s="170"/>
+    </row>
+    <row r="5" spans="1:4" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="168"/>
+      <c r="B5" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="181"/>
-    </row>
-    <row r="6" ht="22" customHeight="1"/>
+      <c r="D5" s="171"/>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -6917,593 +6377,598 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="106" customWidth="1"/>
-    <col min="2" max="2" width="5.16071428571429" style="106" customWidth="1"/>
-    <col min="3" max="3" width="80.6607142857143" style="107" customWidth="1"/>
-    <col min="4" max="4" width="2" style="108" customWidth="1"/>
-    <col min="5" max="5" width="8.33035714285714" style="108" customWidth="1"/>
-    <col min="6" max="6" width="9.66071428571429" style="108" customWidth="1"/>
-    <col min="7" max="7" width="8.33035714285714" style="108" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="108" customWidth="1"/>
-    <col min="9" max="9" width="10.8303571428571" style="108" customWidth="1"/>
-    <col min="10" max="10" width="1.66071428571429" style="108" customWidth="1"/>
-    <col min="11" max="16384" width="8.83035714285714" style="108"/>
+    <col min="1" max="1" width="9.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="2" style="90" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="90" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="90" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="90" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="90" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" style="90" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="E1" s="124" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:10">
-      <c r="A2" s="110" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="154" t="s">
+      <c r="I2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="155"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="113" t="s">
+      <c r="J2" s="114"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="115" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="186"/>
+      <c r="B4" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131" t="s">
+      <c r="E4" s="191"/>
+      <c r="F4" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="116" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="117" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="186"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="117" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="118" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="186"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="134" t="s">
+      <c r="E6" s="192"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="118" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="186"/>
+      <c r="B7" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="158" t="s">
+      <c r="I7" s="117" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:9">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="186"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="156" t="s">
+      <c r="I8" s="115" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="118" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134" t="s">
+      <c r="E9" s="194"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="118" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="113" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131" t="s">
+      <c r="E10" s="195"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="157" t="s">
+      <c r="I10" s="116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" ht="23" spans="1:9">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="117" t="s">
+    <row r="11" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+      <c r="A11" s="186"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="129" t="s">
+      <c r="H11" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="156" t="s">
+      <c r="I11" s="115" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="119" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="186"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="134" t="s">
+      <c r="E12" s="194"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="156" t="s">
+      <c r="I13" s="115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="23" spans="1:9">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117" t="s">
+    <row r="14" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+      <c r="A14" s="186"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="134" t="s">
+      <c r="E14" s="194"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="159" t="s">
+      <c r="I14" s="118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:9">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="119" t="s">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="186"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="135" t="s">
+      <c r="E15" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="156" t="s">
+      <c r="I15" s="115" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="113" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="G16" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="128" t="s">
+      <c r="H16" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="160" t="s">
+      <c r="I16" s="208" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="117" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="186"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="136"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133" t="s">
+      <c r="E17" s="194"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="138"/>
-      <c r="I17" s="161" t="s">
+      <c r="H17" s="206"/>
+      <c r="I17" s="209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="117" t="s">
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="186"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140" t="s">
+      <c r="E18" s="196"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="162" t="s">
+      <c r="H18" s="207"/>
+      <c r="I18" s="210" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="118" t="s">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="186"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="113" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117" t="s">
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="186"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="163"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117" t="s">
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="186"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147" t="s">
+      <c r="E22" s="198"/>
+      <c r="F22" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="164"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="120" t="s">
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="177"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="186"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="149" t="s">
+      <c r="F23" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="165"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="121" t="s">
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="179"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="148"/>
-      <c r="F24" s="149" t="s">
+      <c r="E24" s="199"/>
+      <c r="F24" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="165"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="121"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="117" t="s">
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="179"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="187"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="150" t="s">
+      <c r="F25" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="166"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="121"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="117" t="s">
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="187"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="152"/>
-      <c r="F26" s="153" t="s">
+      <c r="E26" s="200"/>
+      <c r="F26" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="168"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="121"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="119" t="s">
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="119"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="168"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="121" t="s">
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="119"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="168"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="121"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="117" t="s">
+      <c r="J28" s="119"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="187"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="168"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="117" t="s">
+      <c r="J29" s="119"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="187"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="118" t="s">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="187"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="168"/>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:9">
-      <c r="A32" s="123" t="s">
+      <c r="J31" s="119"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="17.25" customHeight="1"/>
-    <row r="35" ht="48.75" customHeight="1"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -7520,18 +6985,12 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -7542,244 +7001,242 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
   </mergeCells>
-  <pageMargins left="0.313888888888889" right="0" top="0.15625" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
+  <pageMargins left="0.31388888888888899" right="0" top="0.15625" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1607142857143" style="84" customWidth="1"/>
-    <col min="2" max="2" width="15.6964285714286" style="84" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="84" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="84" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="84" customWidth="1"/>
-    <col min="6" max="16384" width="8.83035714285714" style="84"/>
+    <col min="1" max="1" width="13.1640625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="72" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="72" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="72" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" s="82" customFormat="1" ht="14" spans="1:5">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+    </row>
+    <row r="2" spans="1:10" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A2" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="215" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="102"/>
-    </row>
-    <row r="3" s="82" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="89" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+    </row>
+    <row r="3" spans="1:10" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="82" customFormat="1" ht="43.5" customHeight="1" spans="1:5">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="90" t="s">
+    <row r="4" spans="1:10" s="70" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="75" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:10">
-      <c r="A5" s="92" t="s">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" s="83" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="217"/>
+      <c r="B6" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="216"/>
+      <c r="B7" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="103"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:10">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="216"/>
+      <c r="B8" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:10">
-      <c r="A9" s="92"/>
-      <c r="B9" s="93" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="216"/>
+      <c r="B9" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="103"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="98" t="s">
+      <c r="H9" s="85"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:8">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="218"/>
+      <c r="B11" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:8">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="218"/>
+      <c r="B12" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:8">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="218"/>
+      <c r="B13" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
@@ -7789,524 +7246,523 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3303571428571" defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.16071428571429" style="42" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="43" customWidth="1"/>
-    <col min="5" max="5" width="23.1607142857143" style="44" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="26.6607142857143" style="44" customWidth="1"/>
-    <col min="8" max="9" width="26.3303571428571" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="10.3303571428571" style="45"/>
+    <col min="1" max="1" width="6.1640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="24" style="32" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="37" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="38" customWidth="1"/>
+    <col min="8" max="9" width="26.33203125" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="10.33203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" s="38" customFormat="1" spans="1:9">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="220" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" s="38" customFormat="1" ht="13" spans="1:9">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="221"/>
+    </row>
+    <row r="3" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" s="39" customFormat="1" ht="138.75" customHeight="1" spans="1:9">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:9" s="33" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" s="39" customFormat="1" ht="101" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52">
+    <row r="5" spans="1:9" s="33" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A5" s="224"/>
+      <c r="B5" s="41">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="65" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="1" ht="112" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52">
+    <row r="6" spans="1:9" s="33" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A6" s="224"/>
+      <c r="B6" s="41">
         <v>3</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" ht="135" spans="1:9">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52">
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A7" s="224"/>
+      <c r="B7" s="41">
         <v>4</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" s="39" customFormat="1" ht="101" spans="1:9">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:9" s="33" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A8" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="41">
         <v>5</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="65" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" ht="126" customHeight="1" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="52">
+    <row r="9" spans="1:9" s="34" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="225"/>
+      <c r="B9" s="41">
         <v>6</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="65" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" s="40" customFormat="1" ht="124" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="52">
+    <row r="10" spans="1:9" s="34" customFormat="1" ht="121" x14ac:dyDescent="0.15">
+      <c r="A10" s="225"/>
+      <c r="B10" s="41">
         <v>7</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="65" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" ht="112" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="52">
+    <row r="11" spans="1:9" s="34" customFormat="1" ht="121" x14ac:dyDescent="0.15">
+      <c r="A11" s="225"/>
+      <c r="B11" s="41">
         <v>8</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" s="41" customFormat="1" ht="112" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="52">
+    <row r="12" spans="1:9" s="35" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A12" s="225"/>
+      <c r="B12" s="41">
         <v>9</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" s="39" customFormat="1" ht="101" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="52">
+    <row r="13" spans="1:9" s="33" customFormat="1" ht="88" x14ac:dyDescent="0.15">
+      <c r="A13" s="225"/>
+      <c r="B13" s="41">
         <v>10</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="65" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="101" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="52">
+    <row r="14" spans="1:9" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A14" s="225"/>
+      <c r="B14" s="41">
         <v>11</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="68" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" s="39" customFormat="1" ht="163.5" customHeight="1" spans="1:9">
-      <c r="A15" s="56"/>
-      <c r="B15" s="52">
+    <row r="15" spans="1:9" s="33" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="225"/>
+      <c r="B15" s="41">
         <v>12</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="65" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" s="39" customFormat="1" ht="101" spans="1:9">
-      <c r="A16" s="56"/>
-      <c r="B16" s="52">
+    <row r="16" spans="1:9" s="33" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A16" s="225"/>
+      <c r="B16" s="41">
         <v>13</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="67" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" s="41" customFormat="1" ht="175.5" customHeight="1" spans="1:9">
-      <c r="A17" s="56"/>
-      <c r="B17" s="52">
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="45"/>
+      <c r="B17" s="41">
         <v>14</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="67" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" ht="101" spans="1:9">
-      <c r="A18" s="56"/>
-      <c r="B18" s="52">
+    <row r="18" spans="1:9" s="35" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="41">
         <v>15</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="67" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" s="41" customFormat="1" ht="112.75" spans="1:9">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61">
+    <row r="19" spans="1:9" s="35" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50">
         <v>16</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="69" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8321,712 +7777,698 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="40.6607142857143" style="16" customWidth="1"/>
-    <col min="4" max="4" width="41" style="16" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="33.8303571428571" style="16" customWidth="1"/>
-    <col min="7" max="7" width="31" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="16.3303571428571" style="16"/>
+    <col min="1" max="1" width="6" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41" style="15" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="227" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" s="14" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="228" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" ht="23" spans="1:7">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="A3" s="228" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" ht="81" customHeight="1" spans="1:7">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="228" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="229"/>
+      <c r="C4" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" ht="81" customHeight="1" spans="1:7">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="228" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="229"/>
+      <c r="C5" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="55" x14ac:dyDescent="0.15">
+      <c r="A6" s="228" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="229"/>
+      <c r="C6" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A7" s="24" t="s">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="230" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="231"/>
+      <c r="B8" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.15625" bottom="0.15625" header="0.118055555555556" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.2053571428571" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="37.2053571428571" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.15" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="232" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="18.75" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" ht="53.75" spans="1:7">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="234" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" ht="36.75" spans="1:7">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A6" s="233" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="234" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="234" t="s">
         <v>301</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="36.75" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10" t="s">
+      <c r="G6" s="234"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A7" s="233"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="36.75" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A8" s="233"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="71.75" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+    </row>
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A9" s="233"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="53.75" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+    </row>
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A10" s="233"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="18.35" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" ht="36.75" spans="1:7">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" ht="53.75" spans="1:7">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A13" s="233" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="234" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" ht="53.75" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="233"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" ht="53.75" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13" t="s">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A15" s="233"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:7">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:7">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="234" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="234" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" ht="18.35" spans="1:7">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="18.35" spans="1:7">
-      <c r="A19" s="4" t="s">
+      <c r="G18" s="234"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:7">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="234" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="234" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="234" t="s">
         <v>330</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="234" t="s">
         <v>331</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="234" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" ht="18.35" spans="1:7">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="36.75" spans="1:7">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" ht="53.75" spans="1:7">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="24" ht="53.75" spans="1:7">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="25" ht="71.75" spans="1:7">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="26" ht="53.75" spans="1:7">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" ht="36.75" spans="1:7">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F6:F10"/>
@@ -9034,11 +8476,21 @@
     <mergeCell ref="G5:G10"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" display="Obtain the Industry Foundations Knowledge badge"/>
+    <hyperlink ref="D17" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>